--- a/glmm_pql/coefs_glmmpql.xlsx
+++ b/glmm_pql/coefs_glmmpql.xlsx
@@ -571,124 +571,124 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.004861</v>
+        <v>0.004784</v>
       </c>
       <c r="C2">
-        <v>0.001802</v>
+        <v>0.001824</v>
       </c>
       <c r="D2">
-        <v>0.0089</v>
+        <v>0.0109</v>
       </c>
       <c r="E2">
-        <v>0.001328</v>
+        <v>0.001209</v>
       </c>
       <c r="F2">
-        <v>0.008394</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="G2">
-        <v>1.004873</v>
+        <v>1.004796</v>
       </c>
       <c r="H2">
-        <v>1.001329</v>
+        <v>1.001209</v>
       </c>
       <c r="I2">
-        <v>1.008429</v>
+        <v>1.008395</v>
       </c>
       <c r="J2">
-        <v>0.152259</v>
+        <v>0.150168</v>
       </c>
       <c r="K2">
-        <v>0.039331</v>
+        <v>0.040467</v>
       </c>
       <c r="L2">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="M2">
-        <v>0.075171</v>
+        <v>0.070853</v>
       </c>
       <c r="N2">
-        <v>0.229348</v>
+        <v>0.229482</v>
       </c>
       <c r="O2">
-        <v>1.164462</v>
+        <v>1.162029</v>
       </c>
       <c r="P2">
-        <v>1.078068</v>
+        <v>1.073424</v>
       </c>
       <c r="Q2">
-        <v>1.25778</v>
+        <v>1.257948</v>
       </c>
       <c r="R2">
-        <v>-0.015884</v>
+        <v>-0.015665</v>
       </c>
       <c r="S2">
-        <v>0.002852</v>
+        <v>0.00289</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>-0.021474</v>
+        <v>-0.021329</v>
       </c>
       <c r="V2">
-        <v>-0.010294</v>
+        <v>-0.01</v>
       </c>
       <c r="W2">
-        <v>0.984241</v>
+        <v>0.9844580000000001</v>
       </c>
       <c r="X2">
-        <v>0.978755</v>
+        <v>0.978897</v>
       </c>
       <c r="Y2">
-        <v>0.9897590000000001</v>
+        <v>0.990049</v>
       </c>
       <c r="Z2">
-        <v>-0.211179</v>
+        <v>-0.209045</v>
       </c>
       <c r="AA2">
-        <v>0.075528</v>
+        <v>0.077115</v>
       </c>
       <c r="AB2">
-        <v>0.0068</v>
+        <v>0.0086</v>
       </c>
       <c r="AC2">
-        <v>-0.359214</v>
+        <v>-0.360191</v>
       </c>
       <c r="AD2">
-        <v>-0.063143</v>
+        <v>-0.0579</v>
       </c>
       <c r="AE2">
-        <v>0.809629</v>
+        <v>0.8113590000000001</v>
       </c>
       <c r="AF2">
-        <v>0.698225</v>
+        <v>0.697543</v>
       </c>
       <c r="AG2">
-        <v>0.938809</v>
+        <v>0.9437449999999999</v>
       </c>
       <c r="AH2">
-        <v>0.007378</v>
+        <v>0.007311</v>
       </c>
       <c r="AI2">
-        <v>0.003159</v>
+        <v>0.003195</v>
       </c>
       <c r="AJ2">
-        <v>0.0225</v>
+        <v>0.0254</v>
       </c>
       <c r="AK2">
-        <v>0.001187</v>
+        <v>0.00105</v>
       </c>
       <c r="AL2">
-        <v>0.013569</v>
+        <v>0.013573</v>
       </c>
       <c r="AM2">
-        <v>1.007406</v>
+        <v>1.007338</v>
       </c>
       <c r="AN2">
-        <v>1.001188</v>
+        <v>1.00105</v>
       </c>
       <c r="AO2">
-        <v>1.013662</v>
+        <v>1.013665</v>
       </c>
     </row>
     <row r="3">
@@ -698,124 +698,124 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.013302</v>
+        <v>0.013121</v>
       </c>
       <c r="C3">
-        <v>0.001809</v>
+        <v>0.001714</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.009756000000000001</v>
+        <v>0.009761000000000001</v>
       </c>
       <c r="F3">
-        <v>0.016848</v>
+        <v>0.01648</v>
       </c>
       <c r="G3">
-        <v>1.013391</v>
+        <v>1.013207</v>
       </c>
       <c r="H3">
-        <v>1.009804</v>
+        <v>1.009809</v>
       </c>
       <c r="I3">
-        <v>1.016991</v>
+        <v>1.016616</v>
       </c>
       <c r="J3">
-        <v>0.160423</v>
+        <v>0.158385</v>
       </c>
       <c r="K3">
-        <v>0.038871</v>
+        <v>0.037925</v>
       </c>
       <c r="L3">
         <v>0.0001</v>
       </c>
       <c r="M3">
-        <v>0.08423600000000001</v>
+        <v>0.084052</v>
       </c>
       <c r="N3">
-        <v>0.23661</v>
+        <v>0.232718</v>
       </c>
       <c r="O3">
-        <v>1.174007</v>
+        <v>1.171617</v>
       </c>
       <c r="P3">
-        <v>1.087885</v>
+        <v>1.087685</v>
       </c>
       <c r="Q3">
-        <v>1.266946</v>
+        <v>1.262026</v>
       </c>
       <c r="R3">
-        <v>-0.017166</v>
+        <v>-0.01683</v>
       </c>
       <c r="S3">
-        <v>0.002889</v>
+        <v>0.002731</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>-0.022829</v>
+        <v>-0.022183</v>
       </c>
       <c r="V3">
-        <v>-0.011502</v>
+        <v>-0.011477</v>
       </c>
       <c r="W3">
-        <v>0.982981</v>
+        <v>0.983311</v>
       </c>
       <c r="X3">
-        <v>0.97743</v>
+        <v>0.978061</v>
       </c>
       <c r="Y3">
-        <v>0.988563</v>
+        <v>0.9885890000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.260944</v>
+        <v>-0.251758</v>
       </c>
       <c r="AA3">
-        <v>0.075906</v>
+        <v>0.07253999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="AC3">
-        <v>-0.409719</v>
+        <v>-0.393937</v>
       </c>
       <c r="AD3">
-        <v>-0.112169</v>
+        <v>-0.109579</v>
       </c>
       <c r="AE3">
-        <v>0.770324</v>
+        <v>0.777433</v>
       </c>
       <c r="AF3">
-        <v>0.663836</v>
+        <v>0.674397</v>
       </c>
       <c r="AG3">
-        <v>0.893893</v>
+        <v>0.896211</v>
       </c>
       <c r="AH3">
-        <v>-0.00278</v>
+        <v>-0.003181</v>
       </c>
       <c r="AI3">
-        <v>0.003154</v>
+        <v>0.002998</v>
       </c>
       <c r="AJ3">
-        <v>0.3814</v>
+        <v>0.2927</v>
       </c>
       <c r="AK3">
-        <v>-0.008961</v>
+        <v>-0.009056</v>
       </c>
       <c r="AL3">
-        <v>0.003402</v>
+        <v>0.002695</v>
       </c>
       <c r="AM3">
-        <v>0.997224</v>
+        <v>0.996825</v>
       </c>
       <c r="AN3">
-        <v>0.991079</v>
+        <v>0.990985</v>
       </c>
       <c r="AO3">
-        <v>1.003408</v>
+        <v>1.002698</v>
       </c>
     </row>
     <row r="4">
@@ -825,124 +825,124 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.008519000000000001</v>
+        <v>0.008652</v>
       </c>
       <c r="C4">
-        <v>0.003185</v>
+        <v>0.003007</v>
       </c>
       <c r="D4">
-        <v>0.0094</v>
+        <v>0.0054</v>
       </c>
       <c r="E4">
-        <v>0.002276</v>
+        <v>0.002759</v>
       </c>
       <c r="F4">
-        <v>0.014762</v>
+        <v>0.014545</v>
       </c>
       <c r="G4">
-        <v>1.008555</v>
+        <v>1.00869</v>
       </c>
       <c r="H4">
-        <v>1.002278</v>
+        <v>1.002763</v>
       </c>
       <c r="I4">
-        <v>1.014871</v>
+        <v>1.014651</v>
       </c>
       <c r="J4">
-        <v>0.16244</v>
+        <v>0.13864</v>
       </c>
       <c r="K4">
-        <v>0.05763</v>
+        <v>0.057609</v>
       </c>
       <c r="L4">
-        <v>0.0064</v>
+        <v>0.019</v>
       </c>
       <c r="M4">
-        <v>0.049486</v>
+        <v>0.025726</v>
       </c>
       <c r="N4">
-        <v>0.275394</v>
+        <v>0.251554</v>
       </c>
       <c r="O4">
-        <v>1.176378</v>
+        <v>1.14871</v>
       </c>
       <c r="P4">
-        <v>1.050731</v>
+        <v>1.02606</v>
       </c>
       <c r="Q4">
-        <v>1.317049</v>
+        <v>1.286022</v>
       </c>
       <c r="R4">
-        <v>-0.006374</v>
+        <v>-0.005453</v>
       </c>
       <c r="S4">
-        <v>0.005267</v>
+        <v>0.004935</v>
       </c>
       <c r="T4">
-        <v>0.2305</v>
+        <v>0.2733</v>
       </c>
       <c r="U4">
-        <v>-0.016698</v>
+        <v>-0.015126</v>
       </c>
       <c r="V4">
-        <v>0.003949</v>
+        <v>0.00422</v>
       </c>
       <c r="W4">
-        <v>0.993646</v>
+        <v>0.9945619999999999</v>
       </c>
       <c r="X4">
-        <v>0.983441</v>
+        <v>0.984988</v>
       </c>
       <c r="Y4">
-        <v>1.003957</v>
+        <v>1.004229</v>
       </c>
       <c r="Z4">
-        <v>0.064946</v>
+        <v>0.053524</v>
       </c>
       <c r="AA4">
-        <v>0.133415</v>
+        <v>0.126207</v>
       </c>
       <c r="AB4">
-        <v>0.628</v>
+        <v>0.6729000000000001</v>
       </c>
       <c r="AC4">
-        <v>-0.196546</v>
+        <v>-0.19384</v>
       </c>
       <c r="AD4">
-        <v>0.326438</v>
+        <v>0.300889</v>
       </c>
       <c r="AE4">
-        <v>1.067101</v>
+        <v>1.054983</v>
       </c>
       <c r="AF4">
-        <v>0.821563</v>
+        <v>0.823789</v>
       </c>
       <c r="AG4">
-        <v>1.386023</v>
+        <v>1.35106</v>
       </c>
       <c r="AH4">
-        <v>0.008174000000000001</v>
+        <v>0.007913999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.005398</v>
+        <v>0.005145</v>
       </c>
       <c r="AJ4">
-        <v>0.1348</v>
+        <v>0.1289</v>
       </c>
       <c r="AK4">
-        <v>-0.002407</v>
+        <v>-0.00217</v>
       </c>
       <c r="AL4">
-        <v>0.018754</v>
+        <v>0.017998</v>
       </c>
       <c r="AM4">
-        <v>1.008207</v>
+        <v>1.007946</v>
       </c>
       <c r="AN4">
-        <v>0.997596</v>
+        <v>0.9978320000000001</v>
       </c>
       <c r="AO4">
-        <v>1.018931</v>
+        <v>1.018161</v>
       </c>
     </row>
     <row r="5">
@@ -952,124 +952,124 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.01581</v>
+        <v>0.015566</v>
       </c>
       <c r="C5">
-        <v>0.002487</v>
+        <v>0.002257</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.010934</v>
+        <v>0.011142</v>
       </c>
       <c r="F5">
-        <v>0.020685</v>
+        <v>0.01999</v>
       </c>
       <c r="G5">
-        <v>1.015935</v>
+        <v>1.015687</v>
       </c>
       <c r="H5">
-        <v>1.010994</v>
+        <v>1.011204</v>
       </c>
       <c r="I5">
-        <v>1.020901</v>
+        <v>1.020191</v>
       </c>
       <c r="J5">
-        <v>0.305399</v>
+        <v>0.321661</v>
       </c>
       <c r="K5">
-        <v>0.049904</v>
+        <v>0.047463</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.207586</v>
+        <v>0.228634</v>
       </c>
       <c r="N5">
-        <v>0.403211</v>
+        <v>0.414688</v>
       </c>
       <c r="O5">
-        <v>1.357166</v>
+        <v>1.379417</v>
       </c>
       <c r="P5">
-        <v>1.230704</v>
+        <v>1.256882</v>
       </c>
       <c r="Q5">
-        <v>1.496623</v>
+        <v>1.513898</v>
       </c>
       <c r="R5">
-        <v>-0.012791</v>
+        <v>-0.013595</v>
       </c>
       <c r="S5">
-        <v>0.004045</v>
+        <v>0.003645</v>
       </c>
       <c r="T5">
-        <v>0.0024</v>
+        <v>0.0004</v>
       </c>
       <c r="U5">
-        <v>-0.020719</v>
+        <v>-0.020739</v>
       </c>
       <c r="V5">
-        <v>-0.004862</v>
+        <v>-0.00645</v>
       </c>
       <c r="W5">
-        <v>0.987291</v>
+        <v>0.986497</v>
       </c>
       <c r="X5">
-        <v>0.979494</v>
+        <v>0.979474</v>
       </c>
       <c r="Y5">
-        <v>0.99515</v>
+        <v>0.993571</v>
       </c>
       <c r="Z5">
-        <v>-0.00303</v>
+        <v>0.026196</v>
       </c>
       <c r="AA5">
-        <v>0.104314</v>
+        <v>0.095183</v>
       </c>
       <c r="AB5">
-        <v>0.9769</v>
+        <v>0.784</v>
       </c>
       <c r="AC5">
-        <v>-0.207486</v>
+        <v>-0.160362</v>
       </c>
       <c r="AD5">
-        <v>0.201426</v>
+        <v>0.212754</v>
       </c>
       <c r="AE5">
-        <v>0.9969749999999999</v>
+        <v>1.026542</v>
       </c>
       <c r="AF5">
-        <v>0.812625</v>
+        <v>0.851836</v>
       </c>
       <c r="AG5">
-        <v>1.223146</v>
+        <v>1.23708</v>
       </c>
       <c r="AH5">
-        <v>0.003299</v>
+        <v>0.002035</v>
       </c>
       <c r="AI5">
-        <v>0.004281</v>
+        <v>0.003919</v>
       </c>
       <c r="AJ5">
-        <v>0.4436</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="AK5">
-        <v>-0.005091</v>
+        <v>-0.005646</v>
       </c>
       <c r="AL5">
-        <v>0.01169</v>
+        <v>0.009716000000000001</v>
       </c>
       <c r="AM5">
-        <v>1.003305</v>
+        <v>1.002037</v>
       </c>
       <c r="AN5">
-        <v>0.994922</v>
+        <v>0.99437</v>
       </c>
       <c r="AO5">
-        <v>1.011758</v>
+        <v>1.009763</v>
       </c>
     </row>
     <row r="6">
@@ -1079,124 +1079,124 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.007816</v>
+        <v>0.007644</v>
       </c>
       <c r="C6">
-        <v>0.002566</v>
+        <v>0.002335</v>
       </c>
       <c r="D6">
-        <v>0.0033</v>
+        <v>0.0017</v>
       </c>
       <c r="E6">
-        <v>0.002788</v>
+        <v>0.003069</v>
       </c>
       <c r="F6">
-        <v>0.012844</v>
+        <v>0.01222</v>
       </c>
       <c r="G6">
-        <v>1.007847</v>
+        <v>1.007673</v>
       </c>
       <c r="H6">
-        <v>1.002791</v>
+        <v>1.003073</v>
       </c>
       <c r="I6">
-        <v>1.012927</v>
+        <v>1.012295</v>
       </c>
       <c r="J6">
-        <v>0.11337</v>
+        <v>0.105098</v>
       </c>
       <c r="K6">
-        <v>0.053628</v>
+        <v>0.05084</v>
       </c>
       <c r="L6">
-        <v>0.0383</v>
+        <v>0.0428</v>
       </c>
       <c r="M6">
-        <v>0.008259000000000001</v>
+        <v>0.005452</v>
       </c>
       <c r="N6">
-        <v>0.218481</v>
+        <v>0.204744</v>
       </c>
       <c r="O6">
-        <v>1.120046</v>
+        <v>1.110819</v>
       </c>
       <c r="P6">
-        <v>1.008293</v>
+        <v>1.005467</v>
       </c>
       <c r="Q6">
-        <v>1.244185</v>
+        <v>1.22721</v>
       </c>
       <c r="R6">
-        <v>-0.011882</v>
+        <v>-0.011395</v>
       </c>
       <c r="S6">
-        <v>0.004112</v>
+        <v>0.00372</v>
       </c>
       <c r="T6">
-        <v>0.0052</v>
+        <v>0.0032</v>
       </c>
       <c r="U6">
-        <v>-0.019941</v>
+        <v>-0.018686</v>
       </c>
       <c r="V6">
-        <v>-0.003823</v>
+        <v>-0.004104</v>
       </c>
       <c r="W6">
-        <v>0.988188</v>
+        <v>0.98867</v>
       </c>
       <c r="X6">
-        <v>0.980256</v>
+        <v>0.981488</v>
       </c>
       <c r="Y6">
-        <v>0.996184</v>
+        <v>0.995904</v>
       </c>
       <c r="Z6">
-        <v>-0.136171</v>
+        <v>-0.125965</v>
       </c>
       <c r="AA6">
-        <v>0.107383</v>
+        <v>0.09851600000000001</v>
       </c>
       <c r="AB6">
-        <v>0.2092</v>
+        <v>0.2056</v>
       </c>
       <c r="AC6">
-        <v>-0.346643</v>
+        <v>-0.319057</v>
       </c>
       <c r="AD6">
-        <v>0.0743</v>
+        <v>0.06712600000000001</v>
       </c>
       <c r="AE6">
-        <v>0.8726930000000001</v>
+        <v>0.881645</v>
       </c>
       <c r="AF6">
-        <v>0.707058</v>
+        <v>0.726834</v>
       </c>
       <c r="AG6">
-        <v>1.07713</v>
+        <v>1.069431</v>
       </c>
       <c r="AH6">
-        <v>0.001041</v>
+        <v>0.00019</v>
       </c>
       <c r="AI6">
-        <v>0.004457</v>
+        <v>0.004075</v>
       </c>
       <c r="AJ6">
-        <v>0.8161</v>
+        <v>0.963</v>
       </c>
       <c r="AK6">
-        <v>-0.007696</v>
+        <v>-0.007797</v>
       </c>
       <c r="AL6">
-        <v>0.009778</v>
+        <v>0.008177</v>
       </c>
       <c r="AM6">
-        <v>1.001041</v>
+        <v>1.00019</v>
       </c>
       <c r="AN6">
-        <v>0.992334</v>
+        <v>0.992233</v>
       </c>
       <c r="AO6">
-        <v>1.009826</v>
+        <v>1.00821</v>
       </c>
     </row>
     <row r="7">
@@ -1206,124 +1206,124 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.023561</v>
+        <v>0.02398</v>
       </c>
       <c r="C7">
-        <v>0.00417</v>
+        <v>0.003958</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.015387</v>
+        <v>0.016222</v>
       </c>
       <c r="F7">
-        <v>0.031734</v>
+        <v>0.031737</v>
       </c>
       <c r="G7">
-        <v>1.02384</v>
+        <v>1.02427</v>
       </c>
       <c r="H7">
-        <v>1.015506</v>
+        <v>1.016355</v>
       </c>
       <c r="I7">
-        <v>1.032242</v>
+        <v>1.032246</v>
       </c>
       <c r="J7">
-        <v>0.447794</v>
+        <v>0.44872</v>
       </c>
       <c r="K7">
-        <v>0.07012500000000001</v>
+        <v>0.069018</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.310348</v>
+        <v>0.313444</v>
       </c>
       <c r="N7">
-        <v>0.58524</v>
+        <v>0.583996</v>
       </c>
       <c r="O7">
-        <v>1.564856</v>
+        <v>1.566306</v>
       </c>
       <c r="P7">
-        <v>1.3639</v>
+        <v>1.368129</v>
       </c>
       <c r="Q7">
-        <v>1.795421</v>
+        <v>1.79319</v>
       </c>
       <c r="R7">
-        <v>-0.044153</v>
+        <v>-0.044864</v>
       </c>
       <c r="S7">
-        <v>0.0071</v>
+        <v>0.006761</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>-0.058068</v>
+        <v>-0.058115</v>
       </c>
       <c r="V7">
-        <v>-0.030238</v>
+        <v>-0.031613</v>
       </c>
       <c r="W7">
-        <v>0.956807</v>
+        <v>0.9561269999999999</v>
       </c>
       <c r="X7">
-        <v>0.943585</v>
+        <v>0.943541</v>
       </c>
       <c r="Y7">
-        <v>0.970215</v>
+        <v>0.968882</v>
       </c>
       <c r="Z7">
-        <v>-0.637041</v>
+        <v>-0.652287</v>
       </c>
       <c r="AA7">
-        <v>0.177165</v>
+        <v>0.168705</v>
       </c>
       <c r="AB7">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="AC7">
-        <v>-0.984285</v>
+        <v>-0.982949</v>
       </c>
       <c r="AD7">
-        <v>-0.289796</v>
+        <v>-0.321625</v>
       </c>
       <c r="AE7">
-        <v>0.528855</v>
+        <v>0.520853</v>
       </c>
       <c r="AF7">
-        <v>0.373706</v>
+        <v>0.374206</v>
       </c>
       <c r="AG7">
-        <v>0.748416</v>
+        <v>0.72497</v>
       </c>
       <c r="AH7">
-        <v>-0.011674</v>
+        <v>-0.011227</v>
       </c>
       <c r="AI7">
-        <v>0.006896</v>
+        <v>0.00661</v>
       </c>
       <c r="AJ7">
-        <v>0.09520000000000001</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="AK7">
-        <v>-0.02519</v>
+        <v>-0.024182</v>
       </c>
       <c r="AL7">
-        <v>0.001842</v>
+        <v>0.001728</v>
       </c>
       <c r="AM7">
-        <v>0.988394</v>
+        <v>0.988836</v>
       </c>
       <c r="AN7">
-        <v>0.975124</v>
+        <v>0.976108</v>
       </c>
       <c r="AO7">
-        <v>1.001844</v>
+        <v>1.00173</v>
       </c>
     </row>
     <row r="8">
@@ -1333,124 +1333,124 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.001832</v>
+        <v>0.002092</v>
       </c>
       <c r="C8">
-        <v>0.002679</v>
+        <v>0.002323</v>
       </c>
       <c r="D8">
-        <v>0.4965</v>
+        <v>0.371</v>
       </c>
       <c r="E8">
-        <v>-0.003419</v>
+        <v>-0.00246</v>
       </c>
       <c r="F8">
-        <v>0.007084</v>
+        <v>0.006645</v>
       </c>
       <c r="G8">
-        <v>1.001834</v>
+        <v>1.002095</v>
       </c>
       <c r="H8">
-        <v>0.996587</v>
+        <v>0.997543</v>
       </c>
       <c r="I8">
-        <v>1.007109</v>
+        <v>1.006667</v>
       </c>
       <c r="J8">
-        <v>-0.177633</v>
+        <v>-0.209144</v>
       </c>
       <c r="K8">
-        <v>0.05706</v>
+        <v>0.051797</v>
       </c>
       <c r="L8">
-        <v>0.0027</v>
+        <v>0.0001</v>
       </c>
       <c r="M8">
-        <v>-0.289469</v>
+        <v>-0.310666</v>
       </c>
       <c r="N8">
-        <v>-0.06579599999999999</v>
+        <v>-0.107623</v>
       </c>
       <c r="O8">
-        <v>0.83725</v>
+        <v>0.8112780000000001</v>
       </c>
       <c r="P8">
-        <v>0.748661</v>
+        <v>0.732959</v>
       </c>
       <c r="Q8">
-        <v>0.936322</v>
+        <v>0.897966</v>
       </c>
       <c r="R8">
-        <v>0.007518</v>
+        <v>0.00877</v>
       </c>
       <c r="S8">
-        <v>0.004284</v>
+        <v>0.003685</v>
       </c>
       <c r="T8">
-        <v>0.0839</v>
+        <v>0.0203</v>
       </c>
       <c r="U8">
-        <v>-0.000879</v>
+        <v>0.001547</v>
       </c>
       <c r="V8">
-        <v>0.015915</v>
+        <v>0.015993</v>
       </c>
       <c r="W8">
-        <v>1.007546</v>
+        <v>1.008809</v>
       </c>
       <c r="X8">
-        <v>0.999121</v>
+        <v>1.001548</v>
       </c>
       <c r="Y8">
-        <v>1.016042</v>
+        <v>1.016122</v>
       </c>
       <c r="Z8">
-        <v>0.026893</v>
+        <v>0.003018</v>
       </c>
       <c r="AA8">
-        <v>0.112255</v>
+        <v>0.09822500000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8114</v>
+        <v>0.9756</v>
       </c>
       <c r="AC8">
-        <v>-0.193126</v>
+        <v>-0.189503</v>
       </c>
       <c r="AD8">
-        <v>0.246912</v>
+        <v>0.195538</v>
       </c>
       <c r="AE8">
-        <v>1.027258</v>
+        <v>1.003022</v>
       </c>
       <c r="AF8">
-        <v>0.8243780000000001</v>
+        <v>0.82737</v>
       </c>
       <c r="AG8">
-        <v>1.280067</v>
+        <v>1.215966</v>
       </c>
       <c r="AH8">
-        <v>0.020656</v>
+        <v>0.020751</v>
       </c>
       <c r="AI8">
-        <v>0.004662</v>
+        <v>0.004059</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.011518</v>
+        <v>0.012795</v>
       </c>
       <c r="AL8">
-        <v>0.029794</v>
+        <v>0.028707</v>
       </c>
       <c r="AM8">
-        <v>1.020871</v>
+        <v>1.020968</v>
       </c>
       <c r="AN8">
-        <v>1.011585</v>
+        <v>1.012877</v>
       </c>
       <c r="AO8">
-        <v>1.030243</v>
+        <v>1.029123</v>
       </c>
     </row>
     <row r="9">
@@ -1460,124 +1460,124 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.016437</v>
+        <v>0.01553</v>
       </c>
       <c r="C9">
-        <v>0.004868</v>
+        <v>0.004333</v>
       </c>
       <c r="D9">
-        <v>0.0012</v>
+        <v>0.0007</v>
       </c>
       <c r="E9">
-        <v>0.006896</v>
+        <v>0.007037</v>
       </c>
       <c r="F9">
-        <v>0.025977</v>
+        <v>0.024023</v>
       </c>
       <c r="G9">
-        <v>1.016573</v>
+        <v>1.015651</v>
       </c>
       <c r="H9">
-        <v>1.00692</v>
+        <v>1.007062</v>
       </c>
       <c r="I9">
-        <v>1.026318</v>
+        <v>1.024314</v>
       </c>
       <c r="J9">
-        <v>-0.774416</v>
+        <v>-0.794804</v>
       </c>
       <c r="K9">
-        <v>0.09159</v>
+        <v>0.08785800000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.953932</v>
+        <v>-0.967006</v>
       </c>
       <c r="N9">
-        <v>-0.5949</v>
+        <v>-0.622602</v>
       </c>
       <c r="O9">
-        <v>0.460973</v>
+        <v>0.45167</v>
       </c>
       <c r="P9">
-        <v>0.385223</v>
+        <v>0.38022</v>
       </c>
       <c r="Q9">
-        <v>0.5516180000000001</v>
+        <v>0.536547</v>
       </c>
       <c r="R9">
-        <v>0.028139</v>
+        <v>0.030982</v>
       </c>
       <c r="S9">
-        <v>0.008030000000000001</v>
+        <v>0.007068</v>
       </c>
       <c r="T9">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0124</v>
+        <v>0.017128</v>
       </c>
       <c r="V9">
-        <v>0.043878</v>
+        <v>0.044835</v>
       </c>
       <c r="W9">
-        <v>1.028538</v>
+        <v>1.031467</v>
       </c>
       <c r="X9">
-        <v>1.012477</v>
+        <v>1.017276</v>
       </c>
       <c r="Y9">
-        <v>1.044855</v>
+        <v>1.045855</v>
       </c>
       <c r="Z9">
-        <v>-0.147201</v>
+        <v>-0.140948</v>
       </c>
       <c r="AA9">
-        <v>0.204148</v>
+        <v>0.182332</v>
       </c>
       <c r="AB9">
-        <v>0.4734</v>
+        <v>0.4424</v>
       </c>
       <c r="AC9">
-        <v>-0.547331</v>
+        <v>-0.498318</v>
       </c>
       <c r="AD9">
-        <v>0.252929</v>
+        <v>0.216422</v>
       </c>
       <c r="AE9">
-        <v>0.863121</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="AF9">
-        <v>0.578492</v>
+        <v>0.607552</v>
       </c>
       <c r="AG9">
-        <v>1.287792</v>
+        <v>1.241626</v>
       </c>
       <c r="AH9">
-        <v>0.004799</v>
+        <v>0.006686</v>
       </c>
       <c r="AI9">
-        <v>0.008293</v>
+        <v>0.007477</v>
       </c>
       <c r="AJ9">
-        <v>0.5648</v>
+        <v>0.3745</v>
       </c>
       <c r="AK9">
-        <v>-0.011455</v>
+        <v>-0.007969</v>
       </c>
       <c r="AL9">
-        <v>0.021053</v>
+        <v>0.021341</v>
       </c>
       <c r="AM9">
-        <v>1.004811</v>
+        <v>1.006709</v>
       </c>
       <c r="AN9">
-        <v>0.98861</v>
+        <v>0.992063</v>
       </c>
       <c r="AO9">
-        <v>1.021276</v>
+        <v>1.021571</v>
       </c>
     </row>
     <row r="10">
@@ -1587,124 +1587,124 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.007541</v>
+        <v>0.007347</v>
       </c>
       <c r="C10">
-        <v>0.002125</v>
+        <v>0.002073</v>
       </c>
       <c r="D10">
         <v>0.0007</v>
       </c>
       <c r="E10">
-        <v>0.003376</v>
+        <v>0.003285</v>
       </c>
       <c r="F10">
-        <v>0.011707</v>
+        <v>0.011409</v>
       </c>
       <c r="G10">
-        <v>1.00757</v>
+        <v>1.007374</v>
       </c>
       <c r="H10">
-        <v>1.003381</v>
+        <v>1.00329</v>
       </c>
       <c r="I10">
-        <v>1.011775</v>
+        <v>1.011475</v>
       </c>
       <c r="J10">
-        <v>-0.225741</v>
+        <v>-0.229186</v>
       </c>
       <c r="K10">
-        <v>0.047368</v>
+        <v>0.047214</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-0.318582</v>
+        <v>-0.321725</v>
       </c>
       <c r="N10">
-        <v>-0.1329</v>
+        <v>-0.136646</v>
       </c>
       <c r="O10">
-        <v>0.797925</v>
+        <v>0.795181</v>
       </c>
       <c r="P10">
-        <v>0.72718</v>
+        <v>0.724898</v>
       </c>
       <c r="Q10">
-        <v>0.875553</v>
+        <v>0.872279</v>
       </c>
       <c r="R10">
-        <v>0.00627</v>
+        <v>0.00673</v>
       </c>
       <c r="S10">
-        <v>0.00335</v>
+        <v>0.003263</v>
       </c>
       <c r="T10">
-        <v>0.06560000000000001</v>
+        <v>0.0433</v>
       </c>
       <c r="U10">
-        <v>-0.000295</v>
+        <v>0.000333</v>
       </c>
       <c r="V10">
-        <v>0.012835</v>
+        <v>0.013126</v>
       </c>
       <c r="W10">
-        <v>1.00629</v>
+        <v>1.006752</v>
       </c>
       <c r="X10">
-        <v>0.999705</v>
+        <v>1.000333</v>
       </c>
       <c r="Y10">
-        <v>1.012918</v>
+        <v>1.013213</v>
       </c>
       <c r="Z10">
-        <v>-0.15748</v>
+        <v>-0.149477</v>
       </c>
       <c r="AA10">
-        <v>0.089055</v>
+        <v>0.087727</v>
       </c>
       <c r="AB10">
-        <v>0.08160000000000001</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="AC10">
-        <v>-0.332027</v>
+        <v>-0.321422</v>
       </c>
       <c r="AD10">
-        <v>0.017068</v>
+        <v>0.022467</v>
       </c>
       <c r="AE10">
-        <v>0.854294</v>
+        <v>0.861158</v>
       </c>
       <c r="AF10">
-        <v>0.717468</v>
+        <v>0.725117</v>
       </c>
       <c r="AG10">
-        <v>1.017214</v>
+        <v>1.022721</v>
       </c>
       <c r="AH10">
-        <v>0.005622</v>
+        <v>0.00533</v>
       </c>
       <c r="AI10">
-        <v>0.003714</v>
+        <v>0.003618</v>
       </c>
       <c r="AJ10">
-        <v>0.1349</v>
+        <v>0.1456</v>
       </c>
       <c r="AK10">
-        <v>-0.001658</v>
+        <v>-0.001761</v>
       </c>
       <c r="AL10">
-        <v>0.012902</v>
+        <v>0.012422</v>
       </c>
       <c r="AM10">
-        <v>1.005638</v>
+        <v>1.005344</v>
       </c>
       <c r="AN10">
-        <v>0.998343</v>
+        <v>0.99824</v>
       </c>
       <c r="AO10">
-        <v>1.012985</v>
+        <v>1.012499</v>
       </c>
     </row>
     <row r="11">
@@ -1714,124 +1714,124 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.021689</v>
+        <v>0.021013</v>
       </c>
       <c r="C11">
-        <v>0.002229</v>
+        <v>0.001829</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.017321</v>
+        <v>0.017428</v>
       </c>
       <c r="F11">
-        <v>0.026057</v>
+        <v>0.024597</v>
       </c>
       <c r="G11">
-        <v>1.021926</v>
+        <v>1.021235</v>
       </c>
       <c r="H11">
-        <v>1.017472</v>
+        <v>1.017581</v>
       </c>
       <c r="I11">
-        <v>1.0264</v>
+        <v>1.024902</v>
       </c>
       <c r="J11">
-        <v>0.048646</v>
+        <v>0.056203</v>
       </c>
       <c r="K11">
-        <v>0.047039</v>
+        <v>0.040674</v>
       </c>
       <c r="L11">
-        <v>0.3048</v>
+        <v>0.1718</v>
       </c>
       <c r="M11">
-        <v>-0.043551</v>
+        <v>-0.023518</v>
       </c>
       <c r="N11">
-        <v>0.140844</v>
+        <v>0.135924</v>
       </c>
       <c r="O11">
-        <v>1.049849</v>
+        <v>1.057812</v>
       </c>
       <c r="P11">
-        <v>0.957384</v>
+        <v>0.976757</v>
       </c>
       <c r="Q11">
-        <v>1.151245</v>
+        <v>1.145594</v>
       </c>
       <c r="R11">
-        <v>-0.017699</v>
+        <v>-0.016946</v>
       </c>
       <c r="S11">
-        <v>0.00354</v>
+        <v>0.002863</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>-0.024637</v>
+        <v>-0.022557</v>
       </c>
       <c r="V11">
-        <v>-0.010761</v>
+        <v>-0.011334</v>
       </c>
       <c r="W11">
-        <v>0.982457</v>
+        <v>0.983197</v>
       </c>
       <c r="X11">
-        <v>0.975664</v>
+        <v>0.977695</v>
       </c>
       <c r="Y11">
-        <v>0.989297</v>
+        <v>0.98873</v>
       </c>
       <c r="Z11">
-        <v>-0.483975</v>
+        <v>-0.453945</v>
       </c>
       <c r="AA11">
-        <v>0.092735</v>
+        <v>0.076721</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>-0.665736</v>
+        <v>-0.604318</v>
       </c>
       <c r="AD11">
-        <v>-0.302213</v>
+        <v>-0.303572</v>
       </c>
       <c r="AE11">
-        <v>0.616329</v>
+        <v>0.635118</v>
       </c>
       <c r="AF11">
-        <v>0.513895</v>
+        <v>0.546447</v>
       </c>
       <c r="AG11">
-        <v>0.7391799999999999</v>
+        <v>0.738177</v>
       </c>
       <c r="AH11">
-        <v>-0.008378999999999999</v>
+        <v>-0.008758</v>
       </c>
       <c r="AI11">
-        <v>0.003789</v>
+        <v>0.003121</v>
       </c>
       <c r="AJ11">
-        <v>0.0305</v>
+        <v>0.0066</v>
       </c>
       <c r="AK11">
-        <v>-0.015805</v>
+        <v>-0.014875</v>
       </c>
       <c r="AL11">
-        <v>-0.000953</v>
+        <v>-0.002641</v>
       </c>
       <c r="AM11">
-        <v>0.991656</v>
+        <v>0.99128</v>
       </c>
       <c r="AN11">
-        <v>0.9843190000000001</v>
+        <v>0.985236</v>
       </c>
       <c r="AO11">
-        <v>0.999048</v>
+        <v>0.997362</v>
       </c>
     </row>
     <row r="12">
@@ -1841,124 +1841,124 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.010984</v>
+        <v>0.010903</v>
       </c>
       <c r="C12">
-        <v>0.001752</v>
+        <v>0.001462</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.007551</v>
+        <v>0.008038</v>
       </c>
       <c r="F12">
-        <v>0.014417</v>
+        <v>0.013769</v>
       </c>
       <c r="G12">
-        <v>1.011045</v>
+        <v>1.010963</v>
       </c>
       <c r="H12">
-        <v>1.007579</v>
+        <v>1.00807</v>
       </c>
       <c r="I12">
-        <v>1.014522</v>
+        <v>1.013864</v>
       </c>
       <c r="J12">
-        <v>0.381972</v>
+        <v>0.37093</v>
       </c>
       <c r="K12">
-        <v>0.037577</v>
+        <v>0.032852</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.308321</v>
+        <v>0.306541</v>
       </c>
       <c r="N12">
-        <v>0.455623</v>
+        <v>0.43532</v>
       </c>
       <c r="O12">
-        <v>1.465171</v>
+        <v>1.449082</v>
       </c>
       <c r="P12">
-        <v>1.361138</v>
+        <v>1.358717</v>
       </c>
       <c r="Q12">
-        <v>1.577155</v>
+        <v>1.545458</v>
       </c>
       <c r="R12">
-        <v>-0.032517</v>
+        <v>-0.031758</v>
       </c>
       <c r="S12">
-        <v>0.002787</v>
+        <v>0.002302</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>-0.037979</v>
+        <v>-0.036269</v>
       </c>
       <c r="V12">
-        <v>-0.027055</v>
+        <v>-0.027247</v>
       </c>
       <c r="W12">
-        <v>0.968006</v>
+        <v>0.968741</v>
       </c>
       <c r="X12">
-        <v>0.962734</v>
+        <v>0.964381</v>
       </c>
       <c r="Y12">
-        <v>0.973308</v>
+        <v>0.973121</v>
       </c>
       <c r="Z12">
-        <v>-0.381709</v>
+        <v>-0.383712</v>
       </c>
       <c r="AA12">
-        <v>0.073349</v>
+        <v>0.061817</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>-0.525473</v>
+        <v>-0.504873</v>
       </c>
       <c r="AD12">
-        <v>-0.237946</v>
+        <v>-0.26255</v>
       </c>
       <c r="AE12">
-        <v>0.682693</v>
+        <v>0.681328</v>
       </c>
       <c r="AF12">
-        <v>0.591276</v>
+        <v>0.603582</v>
       </c>
       <c r="AG12">
-        <v>0.788245</v>
+        <v>0.769088</v>
       </c>
       <c r="AH12">
-        <v>-0.008191</v>
+        <v>-0.00826</v>
       </c>
       <c r="AI12">
-        <v>0.003047</v>
+        <v>0.002551</v>
       </c>
       <c r="AJ12">
-        <v>0.0091</v>
+        <v>0.0019</v>
       </c>
       <c r="AK12">
-        <v>-0.014162</v>
+        <v>-0.01326</v>
       </c>
       <c r="AL12">
-        <v>-0.002219</v>
+        <v>-0.00326</v>
       </c>
       <c r="AM12">
-        <v>0.991843</v>
+        <v>0.991774</v>
       </c>
       <c r="AN12">
-        <v>0.985938</v>
+        <v>0.986827</v>
       </c>
       <c r="AO12">
-        <v>0.997783</v>
+        <v>0.996746</v>
       </c>
     </row>
     <row r="13">
@@ -1968,124 +1968,124 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.014568</v>
+        <v>0.014351</v>
       </c>
       <c r="C13">
-        <v>0.001939</v>
+        <v>0.001896</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.010767</v>
+        <v>0.010635</v>
       </c>
       <c r="F13">
-        <v>0.01837</v>
+        <v>0.018068</v>
       </c>
       <c r="G13">
-        <v>1.014675</v>
+        <v>1.014455</v>
       </c>
       <c r="H13">
-        <v>1.010825</v>
+        <v>1.010692</v>
       </c>
       <c r="I13">
-        <v>1.018539</v>
+        <v>1.018232</v>
       </c>
       <c r="J13">
-        <v>0.275014</v>
+        <v>0.279783</v>
       </c>
       <c r="K13">
-        <v>0.041155</v>
+        <v>0.041168</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.194351</v>
+        <v>0.199093</v>
       </c>
       <c r="N13">
-        <v>0.355677</v>
+        <v>0.360473</v>
       </c>
       <c r="O13">
-        <v>1.316549</v>
+        <v>1.322843</v>
       </c>
       <c r="P13">
-        <v>1.214523</v>
+        <v>1.220295</v>
       </c>
       <c r="Q13">
-        <v>1.427146</v>
+        <v>1.434008</v>
       </c>
       <c r="R13">
-        <v>-0.014597</v>
+        <v>-0.014607</v>
       </c>
       <c r="S13">
-        <v>0.003103</v>
+        <v>0.003034</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>-0.02068</v>
+        <v>-0.020553</v>
       </c>
       <c r="V13">
-        <v>-0.008514000000000001</v>
+        <v>-0.008661</v>
       </c>
       <c r="W13">
-        <v>0.985509</v>
+        <v>0.985499</v>
       </c>
       <c r="X13">
-        <v>0.979533</v>
+        <v>0.979657</v>
       </c>
       <c r="Y13">
-        <v>0.991522</v>
+        <v>0.991377</v>
       </c>
       <c r="Z13">
-        <v>-0.06948600000000001</v>
+        <v>-0.055371</v>
       </c>
       <c r="AA13">
-        <v>0.08129699999999999</v>
+        <v>0.080093</v>
       </c>
       <c r="AB13">
-        <v>0.3958</v>
+        <v>0.4919</v>
       </c>
       <c r="AC13">
-        <v>-0.228829</v>
+        <v>-0.212353</v>
       </c>
       <c r="AD13">
-        <v>0.08985600000000001</v>
+        <v>0.101611</v>
       </c>
       <c r="AE13">
-        <v>0.932873</v>
+        <v>0.946134</v>
       </c>
       <c r="AF13">
-        <v>0.795465</v>
+        <v>0.808679</v>
       </c>
       <c r="AG13">
-        <v>1.094017</v>
+        <v>1.106953</v>
       </c>
       <c r="AH13">
-        <v>0.0008809999999999999</v>
+        <v>0.000376</v>
       </c>
       <c r="AI13">
-        <v>0.003376</v>
+        <v>0.003309</v>
       </c>
       <c r="AJ13">
-        <v>0.7949000000000001</v>
+        <v>0.9099</v>
       </c>
       <c r="AK13">
-        <v>-0.005736</v>
+        <v>-0.00611</v>
       </c>
       <c r="AL13">
-        <v>0.007499</v>
+        <v>0.006862</v>
       </c>
       <c r="AM13">
-        <v>1.000882</v>
+        <v>1.000376</v>
       </c>
       <c r="AN13">
-        <v>0.9942800000000001</v>
+        <v>0.993909</v>
       </c>
       <c r="AO13">
-        <v>1.007527</v>
+        <v>1.006885</v>
       </c>
     </row>
     <row r="14">
@@ -2095,124 +2095,124 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.008201</v>
+        <v>0.007969</v>
       </c>
       <c r="C14">
-        <v>0.001997</v>
+        <v>0.001838</v>
       </c>
       <c r="D14">
         <v>0.0001</v>
       </c>
       <c r="E14">
-        <v>0.004287</v>
+        <v>0.004366</v>
       </c>
       <c r="F14">
-        <v>0.012114</v>
+        <v>0.011571</v>
       </c>
       <c r="G14">
-        <v>1.008235</v>
+        <v>1.008</v>
       </c>
       <c r="H14">
-        <v>1.004296</v>
+        <v>1.004376</v>
       </c>
       <c r="I14">
-        <v>1.012188</v>
+        <v>1.011638</v>
       </c>
       <c r="J14">
-        <v>0.197108</v>
+        <v>0.205674</v>
       </c>
       <c r="K14">
-        <v>0.042912</v>
+        <v>0.040813</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.113</v>
+        <v>0.125681</v>
       </c>
       <c r="N14">
-        <v>0.281215</v>
+        <v>0.285667</v>
       </c>
       <c r="O14">
-        <v>1.217875</v>
+        <v>1.228353</v>
       </c>
       <c r="P14">
-        <v>1.119632</v>
+        <v>1.133921</v>
       </c>
       <c r="Q14">
-        <v>1.324739</v>
+        <v>1.33065</v>
       </c>
       <c r="R14">
-        <v>-0.021981</v>
+        <v>-0.022326</v>
       </c>
       <c r="S14">
-        <v>0.003188</v>
+        <v>0.002923</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>-0.028229</v>
+        <v>-0.028055</v>
       </c>
       <c r="V14">
-        <v>-0.015732</v>
+        <v>-0.016597</v>
       </c>
       <c r="W14">
-        <v>0.978259</v>
+        <v>0.977921</v>
       </c>
       <c r="X14">
-        <v>0.972166</v>
+        <v>0.9723349999999999</v>
       </c>
       <c r="Y14">
-        <v>0.984391</v>
+        <v>0.98354</v>
       </c>
       <c r="Z14">
-        <v>-0.327762</v>
+        <v>-0.305318</v>
       </c>
       <c r="AA14">
-        <v>0.08376599999999999</v>
+        <v>0.077788</v>
       </c>
       <c r="AB14">
         <v>0.0002</v>
       </c>
       <c r="AC14">
-        <v>-0.491943</v>
+        <v>-0.457784</v>
       </c>
       <c r="AD14">
-        <v>-0.163581</v>
+        <v>-0.152853</v>
       </c>
       <c r="AE14">
-        <v>0.720534</v>
+        <v>0.736889</v>
       </c>
       <c r="AF14">
-        <v>0.611437</v>
+        <v>0.632684</v>
       </c>
       <c r="AG14">
-        <v>0.849097</v>
+        <v>0.858256</v>
       </c>
       <c r="AH14">
-        <v>-0.003913</v>
+        <v>-0.005018</v>
       </c>
       <c r="AI14">
-        <v>0.003482</v>
+        <v>0.003217</v>
       </c>
       <c r="AJ14">
-        <v>0.2652</v>
+        <v>0.1237</v>
       </c>
       <c r="AK14">
-        <v>-0.010738</v>
+        <v>-0.011322</v>
       </c>
       <c r="AL14">
-        <v>0.002912</v>
+        <v>0.001286</v>
       </c>
       <c r="AM14">
-        <v>0.996094</v>
+        <v>0.994995</v>
       </c>
       <c r="AN14">
-        <v>0.98932</v>
+        <v>0.988742</v>
       </c>
       <c r="AO14">
-        <v>1.002916</v>
+        <v>1.001287</v>
       </c>
     </row>
     <row r="15">
@@ -2222,124 +2222,124 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.006603</v>
+        <v>0.006495</v>
       </c>
       <c r="C15">
-        <v>0.002313</v>
+        <v>0.002179</v>
       </c>
       <c r="D15">
-        <v>0.0057</v>
+        <v>0.0041</v>
       </c>
       <c r="E15">
-        <v>0.00207</v>
+        <v>0.002223</v>
       </c>
       <c r="F15">
-        <v>0.011136</v>
+        <v>0.010766</v>
       </c>
       <c r="G15">
-        <v>1.006625</v>
+        <v>1.006516</v>
       </c>
       <c r="H15">
-        <v>1.002072</v>
+        <v>1.002226</v>
       </c>
       <c r="I15">
-        <v>1.011199</v>
+        <v>1.010825</v>
       </c>
       <c r="J15">
-        <v>0.163061</v>
+        <v>0.171927</v>
       </c>
       <c r="K15">
-        <v>0.045867</v>
+        <v>0.044784</v>
       </c>
       <c r="L15">
-        <v>0.0007</v>
+        <v>0.0003</v>
       </c>
       <c r="M15">
-        <v>0.073162</v>
+        <v>0.084151</v>
       </c>
       <c r="N15">
-        <v>0.25296</v>
+        <v>0.259703</v>
       </c>
       <c r="O15">
-        <v>1.177108</v>
+        <v>1.187591</v>
       </c>
       <c r="P15">
-        <v>1.075905</v>
+        <v>1.087793</v>
       </c>
       <c r="Q15">
-        <v>1.287831</v>
+        <v>1.296545</v>
       </c>
       <c r="R15">
-        <v>-0.016963</v>
+        <v>-0.017463</v>
       </c>
       <c r="S15">
-        <v>0.003775</v>
+        <v>0.003545</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>-0.024362</v>
+        <v>-0.024412</v>
       </c>
       <c r="V15">
-        <v>-0.009564</v>
+        <v>-0.010515</v>
       </c>
       <c r="W15">
-        <v>0.9831800000000001</v>
+        <v>0.982688</v>
       </c>
       <c r="X15">
-        <v>0.9759330000000001</v>
+        <v>0.975884</v>
       </c>
       <c r="Y15">
-        <v>0.9904809999999999</v>
+        <v>0.98954</v>
       </c>
       <c r="Z15">
-        <v>-0.25788</v>
+        <v>-0.239253</v>
       </c>
       <c r="AA15">
-        <v>0.097015</v>
+        <v>0.091845</v>
       </c>
       <c r="AB15">
-        <v>0.0098</v>
+        <v>0.0114</v>
       </c>
       <c r="AC15">
-        <v>-0.448029</v>
+        <v>-0.419269</v>
       </c>
       <c r="AD15">
-        <v>-0.067731</v>
+        <v>-0.059236</v>
       </c>
       <c r="AE15">
-        <v>0.772688</v>
+        <v>0.787216</v>
       </c>
       <c r="AF15">
-        <v>0.638886</v>
+        <v>0.657527</v>
       </c>
       <c r="AG15">
-        <v>0.934512</v>
+        <v>0.942485</v>
       </c>
       <c r="AH15">
-        <v>0.004025</v>
+        <v>0.002881</v>
       </c>
       <c r="AI15">
-        <v>0.003968</v>
+        <v>0.003768</v>
       </c>
       <c r="AJ15">
-        <v>0.3142</v>
+        <v>0.4473</v>
       </c>
       <c r="AK15">
-        <v>-0.003753</v>
+        <v>-0.004503</v>
       </c>
       <c r="AL15">
-        <v>0.011803</v>
+        <v>0.010266</v>
       </c>
       <c r="AM15">
-        <v>1.004033</v>
+        <v>1.002885</v>
       </c>
       <c r="AN15">
-        <v>0.996254</v>
+        <v>0.995507</v>
       </c>
       <c r="AO15">
-        <v>1.011873</v>
+        <v>1.010318</v>
       </c>
     </row>
     <row r="16">
@@ -2349,124 +2349,124 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.009214999999999999</v>
+        <v>0.008529</v>
       </c>
       <c r="C16">
-        <v>0.001782</v>
+        <v>0.001466</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.005721</v>
+        <v>0.005655</v>
       </c>
       <c r="F16">
-        <v>0.012708</v>
+        <v>0.011404</v>
       </c>
       <c r="G16">
-        <v>1.009257</v>
+        <v>1.008566</v>
       </c>
       <c r="H16">
-        <v>1.005737</v>
+        <v>1.005671</v>
       </c>
       <c r="I16">
-        <v>1.012789</v>
+        <v>1.011469</v>
       </c>
       <c r="J16">
-        <v>0.211145</v>
+        <v>0.22658</v>
       </c>
       <c r="K16">
-        <v>0.039473</v>
+        <v>0.032952</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.133777</v>
+        <v>0.161994</v>
       </c>
       <c r="N16">
-        <v>0.288513</v>
+        <v>0.291166</v>
       </c>
       <c r="O16">
-        <v>1.235092</v>
+        <v>1.254303</v>
       </c>
       <c r="P16">
-        <v>1.143138</v>
+        <v>1.175854</v>
       </c>
       <c r="Q16">
-        <v>1.334442</v>
+        <v>1.337986</v>
       </c>
       <c r="R16">
-        <v>-0.017166</v>
+        <v>-0.016982</v>
       </c>
       <c r="S16">
-        <v>0.002799</v>
+        <v>0.002284</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>-0.022653</v>
+        <v>-0.021459</v>
       </c>
       <c r="V16">
-        <v>-0.011679</v>
+        <v>-0.012506</v>
       </c>
       <c r="W16">
-        <v>0.982981</v>
+        <v>0.983161</v>
       </c>
       <c r="X16">
-        <v>0.977602</v>
+        <v>0.97877</v>
       </c>
       <c r="Y16">
-        <v>0.988389</v>
+        <v>0.987572</v>
       </c>
       <c r="Z16">
-        <v>-0.150234</v>
+        <v>-0.113063</v>
       </c>
       <c r="AA16">
-        <v>0.07459399999999999</v>
+        <v>0.061711</v>
       </c>
       <c r="AB16">
-        <v>0.0481</v>
+        <v>0.0716</v>
       </c>
       <c r="AC16">
-        <v>-0.296438</v>
+        <v>-0.234016</v>
       </c>
       <c r="AD16">
-        <v>-0.004029</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="AE16">
-        <v>0.860507</v>
+        <v>0.8930940000000001</v>
       </c>
       <c r="AF16">
-        <v>0.743462</v>
+        <v>0.791349</v>
       </c>
       <c r="AG16">
-        <v>0.9959789999999999</v>
+        <v>1.007921</v>
       </c>
       <c r="AH16">
-        <v>0.007557</v>
+        <v>0.006848</v>
       </c>
       <c r="AI16">
-        <v>0.00311</v>
+        <v>0.002565</v>
       </c>
       <c r="AJ16">
-        <v>0.0178</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="AK16">
-        <v>0.00146</v>
+        <v>0.001821</v>
       </c>
       <c r="AL16">
-        <v>0.013653</v>
+        <v>0.011874</v>
       </c>
       <c r="AM16">
-        <v>1.007585</v>
+        <v>1.006871</v>
       </c>
       <c r="AN16">
-        <v>1.001461</v>
+        <v>1.001823</v>
       </c>
       <c r="AO16">
-        <v>1.013747</v>
+        <v>1.011945</v>
       </c>
     </row>
     <row r="17">
@@ -2476,124 +2476,124 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.008441000000000001</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="C17">
-        <v>0.001653</v>
+        <v>0.001602</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.005201</v>
+        <v>0.005046</v>
       </c>
       <c r="F17">
-        <v>0.011681</v>
+        <v>0.011325</v>
       </c>
       <c r="G17">
-        <v>1.008477</v>
+        <v>1.008219</v>
       </c>
       <c r="H17">
-        <v>1.005215</v>
+        <v>1.005059</v>
       </c>
       <c r="I17">
-        <v>1.01175</v>
+        <v>1.011389</v>
       </c>
       <c r="J17">
-        <v>0.191032</v>
+        <v>0.195855</v>
       </c>
       <c r="K17">
-        <v>0.036494</v>
+        <v>0.036109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.119503</v>
+        <v>0.125081</v>
       </c>
       <c r="N17">
-        <v>0.262561</v>
+        <v>0.266629</v>
       </c>
       <c r="O17">
-        <v>1.210498</v>
+        <v>1.216351</v>
       </c>
       <c r="P17">
-        <v>1.126937</v>
+        <v>1.133241</v>
       </c>
       <c r="Q17">
-        <v>1.300256</v>
+        <v>1.305556</v>
       </c>
       <c r="R17">
-        <v>-0.014703</v>
+        <v>-0.01469</v>
       </c>
       <c r="S17">
-        <v>0.002605</v>
+        <v>0.00252</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>-0.019807</v>
+        <v>-0.01963</v>
       </c>
       <c r="V17">
-        <v>-0.009598000000000001</v>
+        <v>-0.00975</v>
       </c>
       <c r="W17">
-        <v>0.985405</v>
+        <v>0.985417</v>
       </c>
       <c r="X17">
-        <v>0.980387</v>
+        <v>0.980561</v>
       </c>
       <c r="Y17">
-        <v>0.990448</v>
+        <v>0.990297</v>
       </c>
       <c r="Z17">
-        <v>-0.129946</v>
+        <v>-0.113314</v>
       </c>
       <c r="AA17">
-        <v>0.069257</v>
+        <v>0.067744</v>
       </c>
       <c r="AB17">
-        <v>0.065</v>
+        <v>0.0993</v>
       </c>
       <c r="AC17">
-        <v>-0.265689</v>
+        <v>-0.246093</v>
       </c>
       <c r="AD17">
-        <v>0.005797</v>
+        <v>0.019465</v>
       </c>
       <c r="AE17">
-        <v>0.878143</v>
+        <v>0.8928700000000001</v>
       </c>
       <c r="AF17">
-        <v>0.7666770000000001</v>
+        <v>0.781849</v>
       </c>
       <c r="AG17">
-        <v>1.005814</v>
+        <v>1.019655</v>
       </c>
       <c r="AH17">
-        <v>-0.002074</v>
+        <v>-0.002639</v>
       </c>
       <c r="AI17">
-        <v>0.002893</v>
+        <v>0.0028</v>
       </c>
       <c r="AJ17">
-        <v>0.476</v>
+        <v>0.3495</v>
       </c>
       <c r="AK17">
-        <v>-0.007744</v>
+        <v>-0.008127000000000001</v>
       </c>
       <c r="AL17">
-        <v>0.003596</v>
+        <v>0.002849</v>
       </c>
       <c r="AM17">
-        <v>0.997928</v>
+        <v>0.9973649999999999</v>
       </c>
       <c r="AN17">
-        <v>0.992286</v>
+        <v>0.991906</v>
       </c>
       <c r="AO17">
-        <v>1.003603</v>
+        <v>1.002853</v>
       </c>
     </row>
     <row r="18">
@@ -2603,124 +2603,124 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.011136</v>
+        <v>0.010937</v>
       </c>
       <c r="C18">
-        <v>0.00171</v>
+        <v>0.00165</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.007784</v>
+        <v>0.007703</v>
       </c>
       <c r="F18">
-        <v>0.014488</v>
+        <v>0.014172</v>
       </c>
       <c r="G18">
-        <v>1.011198</v>
+        <v>1.010997</v>
       </c>
       <c r="H18">
-        <v>1.007814</v>
+        <v>1.007732</v>
       </c>
       <c r="I18">
-        <v>1.014594</v>
+        <v>1.014273</v>
       </c>
       <c r="J18">
-        <v>0.17694</v>
+        <v>0.178986</v>
       </c>
       <c r="K18">
-        <v>0.037098</v>
+        <v>0.036685</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.104228</v>
+        <v>0.107083</v>
       </c>
       <c r="N18">
-        <v>0.249651</v>
+        <v>0.250888</v>
       </c>
       <c r="O18">
-        <v>1.193559</v>
+        <v>1.196004</v>
       </c>
       <c r="P18">
-        <v>1.109854</v>
+        <v>1.113027</v>
       </c>
       <c r="Q18">
-        <v>1.283578</v>
+        <v>1.285167</v>
       </c>
       <c r="R18">
-        <v>-0.014757</v>
+        <v>-0.014661</v>
       </c>
       <c r="S18">
-        <v>0.002719</v>
+        <v>0.002621</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>-0.020087</v>
+        <v>-0.019798</v>
       </c>
       <c r="V18">
-        <v>-0.009427</v>
+        <v>-0.009523999999999999</v>
       </c>
       <c r="W18">
-        <v>0.985351</v>
+        <v>0.985446</v>
       </c>
       <c r="X18">
-        <v>0.980113</v>
+        <v>0.980396</v>
       </c>
       <c r="Y18">
-        <v>0.990618</v>
+        <v>0.990521</v>
       </c>
       <c r="Z18">
-        <v>-0.170513</v>
+        <v>-0.158124</v>
       </c>
       <c r="AA18">
-        <v>0.07173599999999999</v>
+        <v>0.069837</v>
       </c>
       <c r="AB18">
-        <v>0.0204</v>
+        <v>0.027</v>
       </c>
       <c r="AC18">
-        <v>-0.311116</v>
+        <v>-0.295004</v>
       </c>
       <c r="AD18">
-        <v>-0.02991</v>
+        <v>-0.021243</v>
       </c>
       <c r="AE18">
-        <v>0.843232</v>
+        <v>0.8537439999999999</v>
       </c>
       <c r="AF18">
-        <v>0.732629</v>
+        <v>0.744528</v>
       </c>
       <c r="AG18">
-        <v>0.970532</v>
+        <v>0.978981</v>
       </c>
       <c r="AH18">
-        <v>0.001898</v>
+        <v>0.001407</v>
       </c>
       <c r="AI18">
-        <v>0.00299</v>
+        <v>0.00289</v>
       </c>
       <c r="AJ18">
-        <v>0.5279</v>
+        <v>0.6281</v>
       </c>
       <c r="AK18">
-        <v>-0.003964</v>
+        <v>-0.004257</v>
       </c>
       <c r="AL18">
-        <v>0.007759</v>
+        <v>0.007071</v>
       </c>
       <c r="AM18">
-        <v>1.001899</v>
+        <v>1.001408</v>
       </c>
       <c r="AN18">
-        <v>0.996044</v>
+        <v>0.995752</v>
       </c>
       <c r="AO18">
-        <v>1.007789</v>
+        <v>1.007096</v>
       </c>
     </row>
   </sheetData>
